--- a/biology/Zoologie/Demi-diable/Demi-diable.xlsx
+++ b/biology/Zoologie/Demi-diable/Demi-diable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centrotus cornutus
 Le Demi-diable ou Cigale épineuse (Centrotus cornutus) est un insecte de la famille des membracides, sous-famille des Centrotinae, tribu des Centrotini, et du genre Centrotus.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les imagos se reconnaissent facilement au fait qu'ils possèdent deux cornes latérales trapues et courbes et aussi une troisième corne longue et ondulante qui s'allonge jusqu'au-dessus des ailes. Considérés dans un premier temps comme étant des excroissances du pronotum, le casque et les cornes des membracides sont en fait liés à celui-ci au niveau de la limite tergite-pleurite à l'instar  des ailes. C'est donc un élément différent et séparé du pronotum. Des études embryologiques ont aussi montré que ces excroissances ont pour origine des bourgeons latéraux, semblables à ceux qui donnent naissance aux ailes.
 Ce bouclier serait donc le résultat de la transformation et de la fusion d'une paire d'ailes située sur le premier segment thoracique. Les insectes à 2 paires d'ailes en étant munis sur les deuxième et troisième segments, les Membracidae descendraient d'un ancêtre à 3 paires d'ailes. Adultes, elles mesurent de 6 à 7 millimètres et sont capables de sauts importants comme les orthoptères. On les rencontre plutôt dans les milieux boisés d'avril à aout.
@@ -545,11 +559,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Centrotus cornutus a été décrite  par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Cicada cornuta[1].
-Synonymie
-Centrotus cornuta Linnaeus, 1758[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Centrotus cornutus a été décrite  par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Cicada cornuta.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Demi-diable</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Demi-diable</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Centrotus cornuta Linnaeus, 1758
 Cicada cornuta Linnaeus, 1758 Protonyme</t>
         </is>
       </c>
